--- a/exp_2/exp2.xlsx
+++ b/exp_2/exp2.xlsx
@@ -140,7 +140,7 @@
   <dimension ref="A1:N36"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M15" activeCellId="0" sqref="M15"/>
+      <selection pane="topLeft" activeCell="H21" activeCellId="0" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -155,7 +155,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="n">
-        <v>251.1</v>
+        <v>0.2511</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>6.1</v>
@@ -165,7 +165,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="n">
-        <v>230</v>
+        <v>0.23</v>
       </c>
       <c r="B3" s="2" t="n">
         <v>5.5</v>
@@ -175,7 +175,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="n">
-        <v>210.1</v>
+        <v>0.2101</v>
       </c>
       <c r="B4" s="2" t="n">
         <v>4.51</v>
@@ -185,7 +185,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="n">
-        <v>190.1</v>
+        <v>0.1901</v>
       </c>
       <c r="B5" s="2" t="n">
         <v>4.46</v>
@@ -195,7 +195,7 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="n">
-        <v>170</v>
+        <v>0.17</v>
       </c>
       <c r="B6" s="2" t="n">
         <v>3.96</v>
@@ -205,7 +205,7 @@
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
-        <v>150.1</v>
+        <v>0.1501</v>
       </c>
       <c r="B7" s="2" t="n">
         <v>3.42</v>
@@ -215,7 +215,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
-        <v>130.3</v>
+        <v>0.1303</v>
       </c>
       <c r="B8" s="2" t="n">
         <v>2.96</v>
@@ -225,7 +225,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
-        <v>110.7</v>
+        <v>0.1107</v>
       </c>
       <c r="B9" s="2" t="n">
         <v>2.45</v>
@@ -235,7 +235,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="n">
-        <v>90.1</v>
+        <v>0.0901</v>
       </c>
       <c r="B10" s="2" t="n">
         <v>1.94</v>
@@ -245,7 +245,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="n">
-        <v>70</v>
+        <v>0.07</v>
       </c>
       <c r="B11" s="2" t="n">
         <v>1.46</v>
@@ -255,7 +255,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="n">
-        <v>50.3</v>
+        <v>0.0503</v>
       </c>
       <c r="B12" s="2" t="n">
         <v>0.97</v>
@@ -265,7 +265,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="n">
-        <v>40.2</v>
+        <v>0.0402</v>
       </c>
       <c r="B13" s="2" t="n">
         <v>0.71</v>
@@ -275,7 +275,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="n">
-        <v>30.01</v>
+        <v>0.03001</v>
       </c>
       <c r="B14" s="2" t="n">
         <v>0.45</v>
@@ -285,7 +285,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="n">
-        <v>25.04</v>
+        <v>0.02504</v>
       </c>
       <c r="B15" s="2" t="n">
         <v>0.32</v>
@@ -295,7 +295,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="n">
-        <v>20</v>
+        <v>0.02</v>
       </c>
       <c r="B16" s="2" t="n">
         <v>0.2</v>
@@ -305,7 +305,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="n">
-        <v>15.1</v>
+        <v>0.0151</v>
       </c>
       <c r="B17" s="2" t="n">
         <v>0.09</v>
